--- a/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,749 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1523,13 +1566,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -580,150 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501039</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501040</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002164</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +532,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,13 +1517,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,36 +1574,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>001816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>汇添富新睿精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1744</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1566,36 +1612,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1053</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1604,36 +1650,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1642,36 +1688,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>501039</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1680,120 +1726,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>501040</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -532,6 +549,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +1190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1517,7 +1930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300181-佐力药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -549,6 +566,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -944,7 +1815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1190,7 +2061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1930,7 +2801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
